--- a/municipal/ENG/Hotels/Guests/Kvemo Kartli/Gardabani Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Kvemo Kartli/Gardabani Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Kvemo Kartli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Kvemo Kartli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -118,6 +115,9 @@
       <t xml:space="preserve"> by country and purpose of arrival in Gardabani  Municipality</t>
     </r>
   </si>
+  <si>
+    <t>(person)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,12 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -333,36 +339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -387,7 +363,37 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -687,14 +693,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -704,13 +710,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -768,18 +774,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -837,19 +843,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -908,14 +914,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="49">
         <v>2010</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -974,22 +980,22 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1049,7 +1055,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1112,19 +1118,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1184,22 +1190,22 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1259,7 +1265,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1319,22 +1325,22 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1394,22 +1400,22 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1469,22 +1475,22 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -1543,14 +1549,14 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34">
+      <c r="A14" s="40">
         <v>2011</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="42">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32">
         <v>297</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="42">
+      <c r="C15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="32">
         <v>297</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>15</v>
+      <c r="E15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1755,41 +1761,41 @@
         <v>297</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2">
         <v>297</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
         <v>297</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2">
         <v>297</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
@@ -1799,97 +1805,97 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="40">
         <v>2012</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="42">
+        <v>7</v>
+      </c>
+      <c r="B24" s="32">
         <v>370</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="42">
+      <c r="C24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="32">
         <v>330</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="42">
+      <c r="E24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1905,13 +1911,13 @@
         <v>370</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
         <v>330</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
         <v>40</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <v>370</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
         <v>330</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="2">
         <v>40</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
@@ -1949,97 +1955,97 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
+      <c r="A32" s="40">
         <v>2013</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="42">
+        <v>7</v>
+      </c>
+      <c r="B33" s="32">
         <v>298</v>
       </c>
-      <c r="C33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="42">
+      <c r="C33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="32">
         <v>298</v>
       </c>
-      <c r="E33" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>15</v>
+      <c r="E33" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -2055,41 +2061,41 @@
         <v>298</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <v>298</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>298</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
         <v>298</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2099,97 +2105,97 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
+      <c r="A41" s="40">
         <v>2014</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="45">
+        <v>7</v>
+      </c>
+      <c r="B42" s="35">
         <v>1211</v>
       </c>
-      <c r="C42" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="45">
+      <c r="C42" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="35">
         <v>340</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="45">
+      <c r="E42" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="35">
         <v>871</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2205,13 +2211,13 @@
         <v>255</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="9">
         <v>255</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>956</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="10">
         <v>340</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F45" s="9">
         <v>616</v>
@@ -2239,7 +2245,7 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>616</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="9">
         <v>616</v>
@@ -2269,77 +2275,77 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>340</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" s="10">
         <v>340</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="40">
         <v>2015</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="45">
+        <v>7</v>
+      </c>
+      <c r="B51" s="35">
         <v>1105</v>
       </c>
-      <c r="C51" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="45">
+      <c r="C51" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="35">
         <v>1105</v>
       </c>
-      <c r="E51" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="45" t="s">
-        <v>15</v>
+      <c r="E51" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2355,41 +2361,41 @@
         <v>685</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53" s="10">
         <v>685</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>420</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54" s="10">
         <v>420</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2399,97 +2405,97 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>140</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" s="10">
         <v>140</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>280</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" s="10">
         <v>280</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+      <c r="A59" s="40">
         <v>2016</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="45">
+        <v>7</v>
+      </c>
+      <c r="B60" s="35">
         <v>1600</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="45">
+      <c r="C60" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="35">
         <v>1600</v>
       </c>
-      <c r="E60" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>15</v>
+      <c r="E60" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2505,41 +2511,41 @@
         <v>610</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" s="10">
         <v>610</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>990</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" s="10">
         <v>990</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2549,97 +2555,97 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>10</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" s="10">
         <v>10</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>980</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" s="10">
         <v>980</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34">
+      <c r="A68" s="40">
         <v>2017</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="45">
+        <v>7</v>
+      </c>
+      <c r="B69" s="35">
         <v>1551</v>
       </c>
-      <c r="C69" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="45">
+      <c r="C69" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="35">
         <v>1551</v>
       </c>
-      <c r="E69" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="45" t="s">
-        <v>15</v>
+      <c r="E69" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2655,41 +2661,41 @@
         <v>131</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" s="10">
         <v>131</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>1420</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" s="10">
         <v>1420</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2699,77 +2705,77 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>1420</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="10">
         <v>1420</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="10">
         <v>0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="47">
+        <v>9</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="37">
         <v>0</v>
       </c>
-      <c r="E76" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>15</v>
+      <c r="E76" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34">
+      <c r="A77" s="40">
         <v>2018</v>
       </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>2945</v>
@@ -2778,18 +2784,18 @@
         <v>2945</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2808,18 +2814,18 @@
         <v>2945</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>2945</v>
@@ -2828,18 +2834,18 @@
         <v>2945</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2849,97 +2855,97 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="34">
+      <c r="A86" s="40">
         <v>2019</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="45">
+        <v>7</v>
+      </c>
+      <c r="B87" s="35">
         <v>3745</v>
       </c>
-      <c r="C87" s="45">
+      <c r="C87" s="35">
         <v>2500</v>
       </c>
-      <c r="D87" s="45">
+      <c r="D87" s="35">
         <v>1245</v>
       </c>
-      <c r="E87" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="45" t="s">
-        <v>15</v>
+      <c r="E87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2961,15 +2967,15 @@
         <v>116</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>3429</v>
@@ -2981,15 +2987,15 @@
         <v>1129</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2999,7 +3005,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>1235</v>
@@ -3011,15 +3017,15 @@
         <v>385</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>2194</v>
@@ -3031,65 +3037,65 @@
         <v>744</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="48" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34">
+      <c r="A95" s="40">
         <v>2020</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="42">
+        <v>7</v>
+      </c>
+      <c r="B96" s="32">
         <v>842</v>
       </c>
-      <c r="C96" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="42">
+      <c r="C96" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="32">
         <v>842</v>
       </c>
-      <c r="E96" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" s="42" t="s">
-        <v>15</v>
+      <c r="E96" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="2"/>
@@ -3105,41 +3111,41 @@
         <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2">
         <v>61</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="2">
         <v>781</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2">
         <v>781</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3149,97 +3155,97 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="2">
         <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2">
         <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2">
         <v>659</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2">
         <v>659</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="34">
+      <c r="A104" s="40">
         <v>2021</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="42">
+        <v>7</v>
+      </c>
+      <c r="B105" s="32">
         <v>844</v>
       </c>
-      <c r="C105" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="42">
+      <c r="C105" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="32">
         <v>844</v>
       </c>
-      <c r="E105" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="42" t="s">
-        <v>15</v>
+      <c r="E105" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -3255,41 +3261,41 @@
         <v>37</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2">
         <v>37</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="2">
         <v>807</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2">
         <v>807</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3299,67 +3305,67 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="2">
         <v>807</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2">
         <v>807</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="43" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B112" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3408,12 +3414,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3464,12 +3470,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3520,12 +3526,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3576,12 +3582,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3632,12 +3638,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3688,12 +3694,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="41"/>
+      <c r="D154" s="41"/>
+      <c r="E154" s="41"/>
+      <c r="F154" s="41"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3744,12 +3750,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="41"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="41"/>
+      <c r="F161" s="41"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3800,12 +3806,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3856,12 +3862,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
+      <c r="A175" s="41"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="41"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3912,12 +3918,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="41"/>
+      <c r="E182" s="41"/>
+      <c r="F182" s="41"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
@@ -3969,17 +3975,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A175:F175"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A5:F5"/>
@@ -3996,6 +3991,17 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
